--- a/Lab09 Sorting/Obfuscated/TestData.xlsx
+++ b/Lab09 Sorting/Obfuscated/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Workspaces\Java\2168-DataStructures\Lab09 Sorting\Obfuscated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188DECD2-920E-4D39-AF2C-F416AB839A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85F06E-96DC-406C-9646-4199CE3E59C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25020" yWindow="900" windowWidth="11460" windowHeight="11970" xr2:uid="{E52FEFBF-5751-4A4B-841D-C8B08AB52EA6}"/>
+    <workbookView xWindow="-23775" yWindow="1200" windowWidth="20910" windowHeight="11835" xr2:uid="{E52FEFBF-5751-4A4B-841D-C8B08AB52EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Execution Time</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>10,000 Element list</t>
+  </si>
+  <si>
+    <t>Sort 1</t>
+  </si>
+  <si>
+    <t>Sort 3</t>
+  </si>
+  <si>
+    <t>Sort 2</t>
+  </si>
+  <si>
+    <t>Sort #</t>
   </si>
 </sst>
 </file>
@@ -57,7 +69,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -111,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,28 +197,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,117 +556,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD776F8E-6A56-4E9E-BBBF-1C9095D8F086}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10">
         <v>1516300</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="2">
         <v>2622</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
         <v>143500</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="2">
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
         <v>101000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
         <v>14212300</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="4">
         <v>245363</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
         <v>1260800</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="4">
         <v>6555</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11">
         <v>765700</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="3">
         <v>2726</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10">
         <v>300479600</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="2">
         <v>24920582</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10">
         <v>8917300</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="2">
         <v>104314</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11">
         <v>4074000</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="3">
         <v>34782</v>
       </c>
     </row>

--- a/Lab09 Sorting/Obfuscated/TestData.xlsx
+++ b/Lab09 Sorting/Obfuscated/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Workspaces\Java\2168-DataStructures\Lab09 Sorting\Obfuscated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85F06E-96DC-406C-9646-4199CE3E59C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B84F2AB-D8D3-4483-8B48-60ADCF30EFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23775" yWindow="1200" windowWidth="20910" windowHeight="11835" xr2:uid="{E52FEFBF-5751-4A4B-841D-C8B08AB52EA6}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{78252182-D78A-44EA-B396-0E4C3590AEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+  <si>
+    <t>Sort #</t>
+  </si>
   <si>
     <t>Execution Time</t>
   </si>
@@ -39,10 +42,22 @@
     <t>Num Swaps</t>
   </si>
   <si>
+    <t>Num Comps</t>
+  </si>
+  <si>
+    <t>(nanoseconds)</t>
+  </si>
+  <si>
     <t>100 Element list</t>
   </si>
   <si>
-    <t>(nanoseconds)</t>
+    <t>Sort 1</t>
+  </si>
+  <si>
+    <t>Sort 2</t>
+  </si>
+  <si>
+    <t>Sort 3</t>
   </si>
   <si>
     <t>1000 Element list</t>
@@ -51,16 +66,10 @@
     <t>10,000 Element list</t>
   </si>
   <si>
-    <t>Sort 1</t>
+    <t>Execution Times</t>
   </si>
   <si>
-    <t>Sort 3</t>
-  </si>
-  <si>
-    <t>Sort 2</t>
-  </si>
-  <si>
-    <t>Sort #</t>
+    <t>Num Comparisons</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +111,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -123,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,6 +151,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -164,6 +191,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -198,20 +234,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -225,21 +256,23 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -257,6 +290,7814 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1862500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8B1-435D-B04A-2B51CFA663C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="436626712"/>
+        <c:axId val="436627368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="436626712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436627368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436627368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436626712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17460200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3293800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1487600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7817-46AC-847A-5178BDBC0097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428111648"/>
+        <c:axId val="428110336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428111648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428110336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428110336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428111648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10,000 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>366628700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11247000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5557200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F42-4160-9850-515A9B575F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="541005360"/>
+        <c:axId val="541005688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="541005360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541005688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="541005688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541005360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$44:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6931-4417-8B40-B10F5F6BE384}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="542269544"/>
+        <c:axId val="542272496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542269544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542272496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542272496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542269544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$48:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$48:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>249612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F60C-49D3-9904-8813D5D3DC5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="542260360"/>
+        <c:axId val="542258064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542260360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542258064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542258064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542260360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10,000 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$52:$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24801161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-712E-4DD4-8295-8F127B0EED58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="540999128"/>
+        <c:axId val="540993552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="540999128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540993552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540993552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540999128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$57:$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$57:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4431-46A6-8F49-6524122DAE15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="540995192"/>
+        <c:axId val="540996832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="540995192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540996832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540996832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540995192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$61:$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>250611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98F8-4AE8-970D-C4C6CC327C56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="540992568"/>
+        <c:axId val="540992896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="540992568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540992896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540992896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540992568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10,000 Element list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$65:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sort 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sort 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sort 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$65:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24811160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E9C-484D-BDA0-A7DD6C1636A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="436618512"/>
+        <c:axId val="436619824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="436618512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436619824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436619824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436618512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86DA19B-FB78-4AF1-84D1-A8AA4D24C5C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96C50C6-884F-48FC-B349-2C202983F062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B1673B-834D-4C88-863A-77406180E230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC95D1E9-BF02-4D96-9EEC-F5193C07012E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD18B77-8FEE-4224-AE9D-965B7600F730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237C56AD-CABE-4F05-9C70-1E4449E951CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA63550-3A3F-4E90-97AD-F7A84559A459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19384AB-C3C5-4E5C-A712-D3A722DD0AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B1FFA9-EA15-44F8-AB49-D608D846A821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,159 +8396,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD776F8E-6A56-4E9E-BBBF-1C9095D8F086}">
-  <dimension ref="B2:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19778167-100B-4C49-952E-0D3777E8052C}">
+  <dimension ref="B1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1862500</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2516</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>251500</v>
+      </c>
+      <c r="D6" s="9">
+        <v>596</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>173000</v>
+      </c>
+      <c r="D7" s="9">
+        <v>193</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>17460200</v>
+      </c>
+      <c r="D9" s="11">
+        <v>249612</v>
+      </c>
+      <c r="E9" s="13">
+        <v>250611</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3293800</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6660</v>
+      </c>
+      <c r="E10" s="13">
+        <v>13758</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1487600</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2705</v>
+      </c>
+      <c r="E11" s="13">
+        <v>15083</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
-        <v>1516300</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2622</v>
+      <c r="C13" s="9">
+        <v>366628700</v>
+      </c>
+      <c r="D13" s="9">
+        <v>24801161</v>
+      </c>
+      <c r="E13" s="13">
+        <v>24811160</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
+        <v>11247000</v>
+      </c>
+      <c r="D14" s="9">
+        <v>103127</v>
+      </c>
+      <c r="E14" s="13">
+        <v>203982</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
-        <v>143500</v>
-      </c>
-      <c r="D6" s="2">
-        <v>368</v>
+      <c r="C15" s="10">
+        <v>5557200</v>
+      </c>
+      <c r="D15" s="10">
+        <v>34829</v>
+      </c>
+      <c r="E15" s="14">
+        <v>196185</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="9">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
-        <v>101000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>192</v>
+      <c r="C45" s="9">
+        <v>596</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6"/>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="9">
+        <v>193</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
-        <v>14212300</v>
-      </c>
-      <c r="D9" s="4">
-        <v>245363</v>
+      <c r="C48" s="11">
+        <v>249612</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="11">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
-        <v>1260800</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6555</v>
+      <c r="C50" s="9">
+        <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="9">
+        <v>24801161</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
-        <v>765700</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2726</v>
+      <c r="C53" s="9">
+        <v>103127</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="10">
+        <v>34829</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10">
-        <v>300479600</v>
-      </c>
-      <c r="D13" s="2">
-        <v>24920582</v>
+      <c r="C57" s="13">
+        <v>2615</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
-        <v>8917300</v>
-      </c>
-      <c r="D14" s="2">
-        <v>104314</v>
+      <c r="C59" s="13">
+        <v>1144</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="13">
+        <v>250611</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11">
-        <v>4074000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>34782</v>
+      <c r="C62" s="13">
+        <v>13758</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="13">
+        <v>15083</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="13">
+        <v>24811160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="13">
+        <v>203982</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="14">
+        <v>196185</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>